--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject8.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject8.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,7 +137,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0</v>
+        <v>0.75124022483341446</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>0</v>
+        <v>0.76806242902769939</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -275,7 +275,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>0</v>
+        <v>0.86763865991618816</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>0</v>
+        <v>0.9470554300551961</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>0</v>
+        <v>0.70752144717077847</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>1</v>
+        <v>0.60852216042830609</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0</v>
+        <v>0.65205673870577319</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>0</v>
+        <v>0.59617618077075896</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.92943892555646146</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>0.72757062326222688</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>0.77816886796340912</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0</v>
+        <v>0.86037840191364379</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0</v>
+        <v>0.66094959973712686</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.98341416651055358</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.97106767698198304</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.56282932157856136</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="0">
-        <v>0</v>
+        <v>0.75974268652402843</v>
       </c>
       <c r="AX5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>0</v>
+        <v>0.74869632660616203</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.71013080558450192</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0</v>
+        <v>0.50270969620110006</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0</v>
+        <v>0.59306487240434635</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>0</v>
+        <v>0.9671931694757494</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.92521522176088888</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.99554173184031314</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.76790325763654455</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.95729857729337287</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.70321581217405305</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.91001414354531862</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0</v>
+        <v>0.78970142648932806</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="0">
-        <v>0</v>
+        <v>0.68374601463297247</v>
       </c>
       <c r="BD8" s="0">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0</v>
+        <v>0.57801392202867952</v>
       </c>
       <c r="BJ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>0.91826043423231019</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>0</v>
+        <v>0.56518465166398046</v>
       </c>
       <c r="AT9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.61475642743944126</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="0">
-        <v>0</v>
+        <v>0.69785474945286285</v>
       </c>
       <c r="AJ10" s="0">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.79436084278568964</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.60328677133210651</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0</v>
+        <v>0.6509123710780309</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.70304631439528409</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="0">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0</v>
+        <v>0.6507473269922599</v>
       </c>
       <c r="AR12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>0.61380097159393443</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
       </c>
       <c r="P13" s="0">
-        <v>0</v>
+        <v>0.74232153999736217</v>
       </c>
       <c r="Q13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>0.87301567245480094</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0.70339792924640809</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>0</v>
+        <v>0.97553825050745346</v>
       </c>
       <c r="AG14" s="0">
-        <v>0</v>
+        <v>0.70755848477880035</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.88750613676364765</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.52428121725001864</v>
       </c>
       <c r="BJ14" s="0">
-        <v>0</v>
+        <v>0.78203846559170986</v>
       </c>
       <c r="BK14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>0.89357224237951671</v>
       </c>
       <c r="M15" s="0">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>0</v>
+        <v>0.61427038674424161</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>0</v>
+        <v>0.80878637384076391</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0</v>
+        <v>0.65592573865171944</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="0">
-        <v>0</v>
+        <v>0.89599349391414829</v>
       </c>
       <c r="N16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>0</v>
+        <v>0.58933645622532727</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0</v>
+        <v>0.92613360296132896</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
       </c>
       <c r="BD16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>0.50974095516604145</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.52748123388644552</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>0</v>
+        <v>0.59881678290178098</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="BA17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="0">
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.91724575417825416</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0</v>
+        <v>0.60180891142299509</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>0.87539436767393952</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.64107013049809769</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0</v>
+        <v>0.60897381486049684</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>0</v>
+        <v>0.57129163330279176</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>0.7677780447070689</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>0.59212197948215406</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0</v>
+        <v>0.59233179534163738</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>0</v>
+        <v>0.77924843823912804</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.97984073280540829</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4084,16 +4084,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="0">
-        <v>0</v>
+        <v>0.774836813223444</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.92546093057608769</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.75573408384022867</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0</v>
+        <v>0.63882494598736717</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0</v>
+        <v>0.7966650663301218</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0</v>
+        <v>0.51010375488966342</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0.52694599382977181</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0</v>
+        <v>0.74924466194724726</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
@@ -4646,10 +4646,10 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0</v>
+        <v>0.67812009869889889</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>0.62422231997202227</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0</v>
+        <v>0.99666586500842191</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="0">
-        <v>0</v>
+        <v>0.97090119782265749</v>
       </c>
       <c r="AS23" s="0">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.90971213867816392</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>0.92233831789431275</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.67822882789301364</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.78031634786872628</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.98515719812319036</v>
       </c>
       <c r="BD24" s="0">
-        <v>0</v>
+        <v>0.69470587800092398</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5150,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.90949351046374405</v>
       </c>
       <c r="AB25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="0">
-        <v>0</v>
+        <v>0.92359509880427915</v>
       </c>
       <c r="AD25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AV25" s="0">
-        <v>0</v>
+        <v>0.62782083993917426</v>
       </c>
       <c r="AW25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.98310548653807306</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0</v>
+        <v>0.66450740815205722</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5344,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0</v>
+        <v>0.91960997179931703</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.82693029387515349</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5440,19 +5440,19 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0</v>
+        <v>0.9044044128407962</v>
       </c>
       <c r="BE26" s="0">
-        <v>0</v>
+        <v>0.83389606789522541</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.57005036682888455</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>0</v>
+        <v>0.60705610993819414</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.73484392456541592</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.86727563974467325</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="0">
-        <v>0</v>
+        <v>0.83746623778468998</v>
       </c>
       <c r="BD27" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5762,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="0">
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.75149545531881912</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>0.80485811521519945</v>
       </c>
       <c r="AL28" s="0">
-        <v>0</v>
+        <v>0.76925856696241857</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>0</v>
+        <v>0.5596586913053917</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>0</v>
+        <v>0.93999813380757735</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>0</v>
+        <v>0.50271764146716713</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.72185519272553933</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5968,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>0</v>
+        <v>0.51985628100114578</v>
       </c>
       <c r="Z29" s="0">
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0</v>
+        <v>0.68352263604008301</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>0</v>
+        <v>0.98765872656990039</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.5737282355883937</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.84415026370359647</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.71341258251466966</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>0</v>
+        <v>0.68359533035838083</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
@@ -6237,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.53857943963580834</v>
       </c>
       <c r="AU30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>1</v>
+        <v>0.55129164700909605</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="0">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0</v>
+        <v>0.52841867570437462</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.6883125236561729</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6443,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>0</v>
+        <v>0.67818748071419721</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0</v>
+        <v>0.76111993100753716</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6464,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
       </c>
       <c r="BC31" s="0">
-        <v>0</v>
+        <v>0.99942244989502216</v>
       </c>
       <c r="BD31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>0</v>
+        <v>0.63533800366876458</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.8311696256129667</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6616,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>0</v>
+        <v>0.85906897947064531</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0</v>
+        <v>0.50827060175949357</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.66841527315416882</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="0">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.96792746317401579</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.51138868146461713</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="0">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>1</v>
+        <v>0.8125197476069328</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>0</v>
+        <v>0.7557140317945592</v>
       </c>
       <c r="K35" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.94664849488169511</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.74160056284242259</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0</v>
+        <v>0.85556151230552113</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="0">
-        <v>0</v>
+        <v>0.91187542157054591</v>
       </c>
       <c r="AS36" s="0">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>0</v>
+        <v>0.87200383537626969</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>0.52949610822532533</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7634,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.87568243785120414</v>
       </c>
       <c r="AF37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.66672423135116254</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.89260452234531029</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.50742256787508899</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>0.86014565162870971</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.86471584188907236</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.99214429731103448</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="0">
-        <v>0</v>
+        <v>0.62194083302787284</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>0</v>
+        <v>0.62968682390953135</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>0</v>
+        <v>0.82996902024675279</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.99266057540596608</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0</v>
+        <v>0.80701519132802568</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.84891147684378121</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>0</v>
+        <v>0.99767314791234929</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>0.58175994817655763</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.89642593609023402</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="0">
         <v>0</v>
@@ -8616,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0</v>
+        <v>0.57448687619502792</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.87237188530340237</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8757,16 +8757,16 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0</v>
+        <v>0.552031675866965</v>
       </c>
       <c r="BK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL42" s="0">
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0</v>
+        <v>0.58039987058477549</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>0</v>
+        <v>0.60171902727937554</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="0">
-        <v>0</v>
+        <v>0.97218231298211033</v>
       </c>
       <c r="BF43" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>0.80548751706878863</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0</v>
+        <v>0.8749302959270796</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>0</v>
+        <v>0.99086910591270372</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0</v>
+        <v>0.53702947201359952</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9210,13 +9210,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
+        <v>0.98678195115345724</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         <v>0</v>
       </c>
       <c r="AO45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="0">
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.86931768624186878</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.98381327150265152</v>
       </c>
       <c r="AE46" s="0">
-        <v>0</v>
+        <v>0.54780121951605398</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.60171533682337341</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0</v>
+        <v>0.68231159828482513</v>
       </c>
       <c r="AY46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0</v>
+        <v>0.6223642257384806</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>0</v>
+        <v>0.7047959051685655</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9721,13 +9721,13 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0</v>
+        <v>0.58289627764125806</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>0</v>
+        <v>0.92803161779522458</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9876,13 +9876,13 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="0">
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0</v>
+        <v>0.62616037036602545</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0</v>
+        <v>0.7983534172168284</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.86554929560793081</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.85782693268520283</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.60552367430168674</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10019,16 +10019,16 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.83133344263751441</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>0.98215268147979484</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
-        <v>0</v>
+        <v>0.57328682844005796</v>
       </c>
       <c r="F49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0</v>
+        <v>0.83214712364292764</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.5830531575132325</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10169,22 +10169,22 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.81295571581994475</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>0.8112789111346832</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0</v>
+        <v>0.58463565632202508</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>0.62839666668592353</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>0.55707263773389371</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="0">
-        <v>0</v>
+        <v>0.84565120212650846</v>
       </c>
       <c r="AC50" s="0">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0</v>
+        <v>0.90627475465617624</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10581,13 +10581,13 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0</v>
+        <v>0.60540595364711791</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10614,13 +10614,13 @@
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>0</v>
+        <v>0.93988157422440377</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0</v>
+        <v>0.65111223627990444</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.61159606560588053</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10778,19 +10778,19 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.74251953959968775</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.82353522875643448</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.96581977270163066</v>
       </c>
       <c r="E53" s="0">
-        <v>0</v>
+        <v>0.58482672340260466</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.64214012378411622</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10939,13 +10939,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="0">
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0</v>
+        <v>0.9941111373831949</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11035,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>0</v>
+        <v>0.89945218830239049</v>
       </c>
       <c r="BO53" s="0">
-        <v>0</v>
+        <v>0.71908858968846678</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>0</v>
+        <v>0.74519260511377827</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11064,10 +11064,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>0</v>
+        <v>0.66970377954097682</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="0">
-        <v>0</v>
+        <v>0.66777292563168467</v>
       </c>
       <c r="AN54" s="0">
         <v>0</v>
@@ -11190,13 +11190,13 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>0.93812135179609724</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>0</v>
+        <v>0.6009926960238634</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>0</v>
+        <v>0.96797042838159864</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0</v>
+        <v>0.59874899402639015</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.7323406817937117</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11321,16 +11321,16 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.60146787169072824</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0</v>
+        <v>0.54855834349492993</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>0</v>
+        <v>0.51136621220598233</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.58014109788687129</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.9633634469060538</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="BL55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM55" s="0">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="0">
         <v>0</v>
@@ -11527,13 +11527,13 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>0</v>
+        <v>0.86119130717728443</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0</v>
+        <v>0.74739948064786954</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.78250623356445237</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.81371415214196618</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11712,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11730,16 +11730,16 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.76793414219250411</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0</v>
+        <v>0.86213539584725796</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.93277419453737775</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0</v>
+        <v>0.94288215920358276</v>
       </c>
       <c r="AR57" s="0">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>0</v>
+        <v>0.65354163404904253</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.52587323335563529</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11838,10 +11838,10 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.7354532271914811</v>
       </c>
       <c r="BH57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0</v>
+        <v>0.67784597928142687</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0</v>
+        <v>0.99799624866911629</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0</v>
+        <v>0.95332683977410282</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12047,10 +12047,10 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.62472383959501754</v>
       </c>
       <c r="BI58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58" s="0">
         <v>0</v>
@@ -12091,13 +12091,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12145,13 +12145,13 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.50881477030261224</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>1</v>
+        <v>0.76369199144468081</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0</v>
+        <v>0.52396474459193887</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.69272335866344448</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.74064544122242126</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.82346306613787457</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12303,16 +12303,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.56803347498424173</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0</v>
+        <v>0.88991949658146619</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12450,10 +12450,10 @@
         <v>0</v>
       </c>
       <c r="BE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.89404298133815918</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.77788999551573879</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12506,10 +12506,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.83077087692626972</v>
       </c>
       <c r="H61" s="0">
-        <v>0</v>
+        <v>0.9950003889510064</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.77597898376850882</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0</v>
+        <v>0.74651903865473757</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.76273118088742886</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12659,10 +12659,10 @@
         <v>0</v>
       </c>
       <c r="BF61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.68317824549746353</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>0</v>
+        <v>0.98989325816058993</v>
       </c>
     </row>
     <row r="62">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.76347934547599994</v>
       </c>
       <c r="H62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12733,13 +12733,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0</v>
+        <v>0.57521449743155495</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>0</v>
+        <v>0.62161112822330788</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.73150513194348266</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12883,13 +12883,13 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>0</v>
+        <v>0.58291552592030227</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0</v>
+        <v>0.83439002978520826</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.99700221058277294</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>0</v>
+        <v>0.9685305770408863</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>0</v>
+        <v>0.94861237678655541</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0</v>
+        <v>0.56537107166077982</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="BC64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.51585475580217299</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>0</v>
+        <v>0.62715130580052048</v>
       </c>
       <c r="AQ65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0</v>
+        <v>0.76866145681978482</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>0</v>
+        <v>0.87746153660944504</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13492,13 +13492,13 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="0">
-        <v>0</v>
+        <v>0.8964950955973382</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>0</v>
+        <v>0.72801482836863096</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0</v>
+        <v>0.64825161326684577</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13701,13 +13701,13 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.71939097881943737</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.89583598982755497</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>0</v>
+        <v>0.68560426670350205</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>0</v>
+        <v>0.75816223993147014</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>0</v>
+        <v>0.52564403959315165</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.86211535446887977</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>0</v>
+        <v>0.91581295820993647</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject8.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject8.xlsx
@@ -98,7 +98,7 @@
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
     <col min="41" max="41" width="12.7109375" customWidth="true"/>
     <col min="42" max="42" width="12.7109375" customWidth="true"/>
-    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="11.7109375" customWidth="true"/>
     <col min="44" max="44" width="12.7109375" customWidth="true"/>
     <col min="45" max="45" width="12.7109375" customWidth="true"/>
     <col min="46" max="46" width="12.7109375" customWidth="true"/>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0.75124022483341446</v>
+        <v>0.87539436767393952</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.65205673870577319</v>
+        <v>0.83133344263751441</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>0.59617618077075896</v>
+        <v>0.74519260511377827</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0.86037840191364379</v>
+        <v>0.98215268147979484</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.56282932157856136</v>
+        <v>0.92521522176088888</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0.50270969620110006</v>
+        <v>0.7966650663301218</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.59306487240434635</v>
+        <v>0.98310548653807306</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0.76790325763654455</v>
+        <v>0.83077087692626972</v>
       </c>
       <c r="BJ7" s="0">
         <v>0.95729857729337287</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.70321581217405305</v>
+        <v>0.71013080558450192</v>
       </c>
       <c r="G8" s="0">
-        <v>0.91001414354531862</v>
+        <v>0.99554173184031314</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0.57801392202867952</v>
+        <v>0.9950003889510064</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0.91826043423231019</v>
+        <v>0.92233831789431275</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>0.56518465166398046</v>
+        <v>0.98678195115345724</v>
       </c>
       <c r="AT9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.61475642743944126</v>
+        <v>0.72757062326222688</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="0">
-        <v>0.69785474945286285</v>
+        <v>0.7557140317945592</v>
       </c>
       <c r="AJ10" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.79436084278568964</v>
+        <v>0.81371415214196618</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0.6509123710780309</v>
+        <v>0.89357224237951671</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0.61380097159393443</v>
+        <v>0.78970142648932806</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="0">
-        <v>0.74232153999736217</v>
+        <v>0.89599349391414829</v>
       </c>
       <c r="Q13" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0.52428121725001864</v>
+        <v>0.77597898376850882</v>
       </c>
       <c r="BJ14" s="0">
         <v>0.78203846559170986</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>0.61427038674424161</v>
+        <v>0.774836813223444</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0.65592573865171944</v>
+        <v>0.99799624866911629</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>0.58933645622532727</v>
+        <v>0.82996902024675279</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>0.50974095516604145</v>
+        <v>0.66094959973712686</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0.52748123388644552</v>
+        <v>0.92546093057608769</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.59881678290178098</v>
+        <v>0.66450740815205722</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0.60180891142299509</v>
+        <v>0.74651903865473757</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.64107013049809769</v>
+        <v>0.75573408384022867</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.60897381486049684</v>
+        <v>0.72185519272553933</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>0.57129163330279176</v>
+        <v>0.66970377954097682</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="0">
-        <v>0.7677780447070689</v>
+        <v>0.9470554300551961</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.59212197948215406</v>
+        <v>0.87301567245480094</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.51010375488966342</v>
+        <v>0.85556151230552113</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>0.52694599382977181</v>
+        <v>0.70339792924640809</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.74924466194724726</v>
+        <v>0.99767314791234929</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0.67812009869889889</v>
+        <v>0.8964950955973382</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>0.62422231997202227</v>
+        <v>0.70752144717077847</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0.67822882789301364</v>
+        <v>0.70304631439528409</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.78031634786872628</v>
+        <v>0.82693029387515349</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.98515719812319036</v>
       </c>
       <c r="BD24" s="0">
-        <v>0.69470587800092398</v>
+        <v>0.86119130717728443</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0.91960997179931703</v>
+        <v>0.99666586500842191</v>
       </c>
       <c r="X26" s="0">
         <v>0.82693029387515349</v>
@@ -5446,7 +5446,7 @@
         <v>0.9044044128407962</v>
       </c>
       <c r="BE26" s="0">
-        <v>0.83389606789522541</v>
+        <v>0.86213539584725796</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>0.60705610993819414</v>
+        <v>0.80878637384076391</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.73484392456541592</v>
+        <v>0.90949351046374405</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.75149545531881912</v>
+        <v>0.84415026370359647</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0.80485811521519945</v>
       </c>
       <c r="AL28" s="0">
-        <v>0.76925856696241857</v>
+        <v>0.86014565162870971</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>0.5596586913053917</v>
+        <v>0.84565120212650846</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>0.93999813380757735</v>
+        <v>0.94861237678655541</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>0.50271764146716713</v>
+        <v>0.9671931694757494</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>0.51985628100114578</v>
+        <v>0.92359509880427915</v>
       </c>
       <c r="Z29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.68352263604008301</v>
+        <v>0.8749302959270796</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0.5737282355883937</v>
+        <v>0.77816886796340912</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.71341258251466966</v>
+        <v>0.8311696256129667</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0.53857943963580834</v>
+        <v>0.98381327150265152</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0.55129164700909605</v>
+        <v>0.60852216042830609</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0.52841867570437462</v>
+        <v>0.63882494598736717</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.6883125236561729</v>
+        <v>0.87568243785120414</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0.76111993100753716</v>
+        <v>0.7983534172168284</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>0.63533800366876458</v>
+        <v>0.97553825050745346</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0.50827060175949357</v>
+        <v>0.70755848477880035</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.66841527315416882</v>
+        <v>0.96792746317401579</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0.51138868146461713</v>
+        <v>0.86554929560793081</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="0">
-        <v>0.91187542157054591</v>
+        <v>0.99086910591270372</v>
       </c>
       <c r="AS36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.52949610822532533</v>
+        <v>0.80485811521519945</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.66672423135116254</v>
+        <v>0.94664849488169511</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0.50742256787508899</v>
+        <v>0.93277419453737775</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.86471584188907236</v>
+        <v>0.87237188530340237</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0.99214429731103448</v>
+        <v>0.99700221058277294</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="0">
-        <v>0.62194083302787284</v>
+        <v>0.66777292563168467</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0.58175994817655763</v>
+        <v>0.68359533035838083</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.89642593609023402</v>
+        <v>0.99266057540596608</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0.57448687619502792</v>
+        <v>0.92613360296132896</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0.552031675866965</v>
+        <v>0.62161112822330788</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0.58039987058477549</v>
+        <v>0.62715130580052048</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>0.60171902727937554</v>
+        <v>0.6507473269922599</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0.80548751706878863</v>
+        <v>0.97090119782265749</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.53702947201359952</v>
+        <v>0.76806242902769939</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0.98381327150265152</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.54780121951605398</v>
+        <v>0.67818748071419721</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.60171533682337341</v>
+        <v>0.86931768624186878</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0.68231159828482513</v>
+        <v>0.90627475465617624</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0.6223642257384806</v>
+        <v>0.88991949658146619</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>0.7047959051685655</v>
+        <v>0.72801482836863096</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0.58289627764125806</v>
+        <v>0.80701519132802568</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0.62616037036602545</v>
+        <v>0.62782083993917426</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0.85782693268520283</v>
+        <v>0.89260452234531029</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="0">
-        <v>0.57328682844005796</v>
+        <v>0.75974268652402843</v>
       </c>
       <c r="F49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0.83214712364292764</v>
+        <v>0.87200383537626969</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.5830531575132325</v>
+        <v>0.60552367430168674</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0.8112789111346832</v>
+        <v>0.93812135179609724</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0.58463565632202508</v>
+        <v>0.65354163404904253</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.62839666668592353</v>
+        <v>0.86763865991618816</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0.55707263773389371</v>
+        <v>0.59233179534163738</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10614,13 +10614,13 @@
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>0.93988157422440377</v>
+        <v>0.9685305770408863</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0.65111223627990444</v>
+        <v>0.76866145681978482</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.61159606560588053</v>
+        <v>0.86727563974467325</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0.74251953959968775</v>
+        <v>0.81295571581994475</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0.96581977270163066</v>
+        <v>0.98341416651055358</v>
       </c>
       <c r="E53" s="0">
-        <v>0.58482672340260466</v>
+        <v>0.74869632660616203</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0.64214012378411622</v>
+        <v>0.88750613676364765</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>0.6009926960238634</v>
+        <v>0.60540595364711791</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0.59874899402639015</v>
+        <v>0.68374601463297247</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.7323406817937117</v>
+        <v>0.91724575417825416</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0.60146787169072824</v>
+        <v>0.98515719812319036</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="0">
-        <v>0.54855834349492993</v>
+        <v>0.83746623778468998</v>
       </c>
       <c r="AB55" s="0">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AE55" s="0">
-        <v>0.51136621220598233</v>
+        <v>0.99942244989502216</v>
       </c>
       <c r="AF55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.58014109788687129</v>
+        <v>0.74160056284242259</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0.74739948064786954</v>
+        <v>0.9044044128407962</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.78250623356445237</v>
+        <v>0.9633634469060538</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0.76793414219250411</v>
+        <v>0.90971213867816392</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0">
-        <v>0.94288215920358276</v>
+        <v>0.97218231298211033</v>
       </c>
       <c r="AR57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0.52587323335563529</v>
+        <v>0.82353522875643448</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0.67784597928142687</v>
+        <v>0.87746153660944504</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0.95332683977410282</v>
+        <v>0.9941111373831949</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.62472383959501754</v>
+        <v>0.89404298133815918</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0.50881477030261224</v>
+        <v>0.57005036682888455</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.76369199144468081</v>
+        <v>0.8125197476069328</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0.52396474459193887</v>
+        <v>0.96797042838159864</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.69272335866344448</v>
+        <v>0.7354532271914811</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0.82346306613787457</v>
+        <v>0.97106767698198304</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0.56803347498424173</v>
+        <v>0.60328677133210651</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0.76273118088742886</v>
+        <v>0.84891147684378121</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.68317824549746353</v>
+        <v>0.74064544122242126</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0.76347934547599994</v>
+        <v>0.95729857729337287</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>0.57521449743155495</v>
+        <v>0.78203846559170986</v>
       </c>
       <c r="O62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.73150513194348266</v>
+        <v>0.77788999551573879</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>0.58291552592030227</v>
+        <v>0.77924843823912804</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.83439002978520826</v>
+        <v>0.98765872656990039</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0.56537107166077982</v>
+        <v>0.62968682390953135</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.51585475580217299</v>
+        <v>0.71939097881943737</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0.64825161326684577</v>
+        <v>0.89945218830239049</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0.89583598982755497</v>
+        <v>0.97984073280540829</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>0.68560426670350205</v>
+        <v>0.85906897947064531</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>0.75816223993147014</v>
+        <v>0.92803161779522458</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>0.52564403959315165</v>
+        <v>0.71908858968846678</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.86211535446887977</v>
+        <v>0.92943892555646146</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>0.91581295820993647</v>
+        <v>0.98989325816058993</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
